--- a/legislator/property/output/tmpe6fb1_吳育昇_2011-11-17_None.xlsx
+++ b/legislator/property/output/tmpe6fb1_吳育昇_2011-11-17_None.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="183">
   <si>
     <t>土地坐落</t>
   </si>
@@ -66,12 +66,6 @@
     <t>臺北市大安區懷生段三小段 0496-0000 地號</t>
   </si>
   <si>
-    <t>土 地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方 公尺）</t>
-  </si>
-  <si>
     <t>10000分之 34</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>5分之1</t>
   </si>
   <si>
-    <t>權利範圍 (持分）</t>
-  </si>
-  <si>
     <t>吳育昇</t>
   </si>
   <si>
@@ -108,9 +99,6 @@
     <t>85年01月 19日</t>
   </si>
   <si>
-    <t>變動時間</t>
-  </si>
-  <si>
     <t>買賣</t>
   </si>
   <si>
@@ -120,15 +108,9 @@
     <t>貝賈</t>
   </si>
   <si>
-    <t>變動原因</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>變動時之價額</t>
-  </si>
-  <si>
     <t>建物標示</t>
   </si>
   <si>
@@ -163,9 +145,6 @@
   </si>
   <si>
     <t>新北市淡水區海天段01826-000 建號</t>
-  </si>
-  <si>
-    <t>建 物標示</t>
   </si>
   <si>
     <t>1,132.07</t>
@@ -956,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -996,19 +975,19 @@
         <v>1808</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1022,19 +1001,19 @@
         <v>2659</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1048,19 +1027,19 @@
         <v>4324.24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1074,19 +1053,19 @@
         <v>3083.12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1100,45 +1079,19 @@
         <v>117</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1156,25 +1109,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1182,25 +1135,25 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F2" s="2">
         <v>21.62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1208,13 +1161,13 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -1223,10 +1176,10 @@
         <v>110.82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1234,13 +1187,13 @@
         <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -1249,10 +1202,10 @@
         <v>8.44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1260,13 +1213,13 @@
         <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="2">
         <v>27.66</v>
@@ -1275,10 +1228,10 @@
         <v>81.09</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1286,13 +1239,13 @@
         <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E6" s="2">
         <v>24.88</v>
@@ -1301,10 +1254,10 @@
         <v>92.89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1312,25 +1265,25 @@
         <v>126</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F7" s="2">
         <v>23.37</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1338,13 +1291,13 @@
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E8" s="2">
         <v>17.9</v>
@@ -1353,10 +1306,10 @@
         <v>80.67</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1364,13 +1317,13 @@
         <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2">
         <v>74.308</v>
@@ -1379,10 +1332,10 @@
         <v>28.67</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1390,13 +1343,13 @@
         <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2">
         <v>52.17</v>
@@ -1405,10 +1358,10 @@
         <v>40.17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1426,34 +1379,34 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1"/>
     </row>
@@ -1462,37 +1415,37 @@
         <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1510,16 +1463,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1527,13 +1480,13 @@
         <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1542,13 +1495,13 @@
         <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1557,13 +1510,13 @@
         <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1572,13 +1525,13 @@
         <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1587,13 +1540,13 @@
         <v>149</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1602,13 +1555,13 @@
         <v>150</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1627,34 +1580,34 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1672,22 +1625,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1695,22 +1648,22 @@
         <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1728,22 +1681,22 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1753,7 +1706,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1761,7 +1714,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1787,25 +1740,25 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2">
         <v>62.37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1813,25 +1766,25 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2">
         <v>131.42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1839,25 +1792,25 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2">
         <v>163.72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1865,25 +1818,25 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
         <v>88.29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1891,25 +1844,25 @@
         <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2">
         <v>36.83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1917,25 +1870,25 @@
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2">
         <v>51.15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1943,25 +1896,25 @@
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2">
         <v>186.48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1969,25 +1922,25 @@
         <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2">
         <v>480.06</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1995,25 +1948,25 @@
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2">
         <v>547.61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2021,25 +1974,25 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2047,51 +2000,25 @@
         <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2">
         <v>605.17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>38</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2109,19 +2036,19 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -2148,16 +2075,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -2171,19 +2098,19 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
         <v>2349</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2">
         <v>868000</v>
@@ -2194,19 +2121,19 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2">
         <v>1275</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2">
         <v>376000</v>
@@ -2227,16 +2154,16 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -2263,16 +2190,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2280,10 +2207,10 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
@@ -2295,10 +2222,10 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
@@ -2320,22 +2247,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2343,16 +2270,16 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -2364,16 +2291,16 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -2385,16 +2312,16 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -2406,16 +2333,16 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -2427,16 +2354,16 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -2448,16 +2375,16 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -2469,16 +2396,16 @@
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -2490,16 +2417,16 @@
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -2511,16 +2438,16 @@
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -2532,16 +2459,16 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -2553,16 +2480,16 @@
         <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -2574,16 +2501,16 @@
         <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -2595,16 +2522,16 @@
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -2616,16 +2543,16 @@
         <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -2637,16 +2564,16 @@
         <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -2658,16 +2585,16 @@
         <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -2679,16 +2606,16 @@
         <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -2700,20 +2627,20 @@
         <v>84</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2721,16 +2648,16 @@
         <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -2742,16 +2669,16 @@
         <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -2763,20 +2690,20 @@
         <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2784,20 +2711,20 @@
         <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2805,16 +2732,16 @@
         <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -2836,34 +2763,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2871,10 +2798,10 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>8325</v>
@@ -2883,7 +2810,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2">
         <v>83250</v>
@@ -2898,10 +2825,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>198</v>
@@ -2910,7 +2837,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2">
         <v>1980</v>
@@ -2925,10 +2852,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>21055</v>
@@ -2937,7 +2864,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2">
         <v>210550</v>
@@ -2952,10 +2879,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>26924</v>
@@ -2964,7 +2891,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2">
         <v>269240</v>
@@ -2979,10 +2906,10 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>6188</v>
@@ -2991,7 +2918,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2">
         <v>61880</v>
@@ -3006,10 +2933,10 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
         <v>543</v>
@@ -3018,7 +2945,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2">
         <v>5430</v>
@@ -3033,10 +2960,10 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
         <v>331</v>
@@ -3045,7 +2972,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2">
         <v>3310</v>
@@ -3060,10 +2987,10 @@
         <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <v>1416</v>
@@ -3072,7 +2999,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G9" s="2">
         <v>14160</v>
@@ -3087,10 +3014,10 @@
         <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
         <v>12964</v>
@@ -3099,7 +3026,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2">
         <v>129640</v>
@@ -3114,10 +3041,10 @@
         <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
         <v>69</v>
@@ -3126,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G11" s="2">
         <v>690</v>
@@ -3141,10 +3068,10 @@
         <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
         <v>9435</v>
@@ -3153,7 +3080,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G12" s="2">
         <v>94350</v>
@@ -3168,10 +3095,10 @@
         <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2">
         <v>925</v>
@@ -3180,7 +3107,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G13" s="2">
         <v>9250</v>
@@ -3195,10 +3122,10 @@
         <v>110</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2">
         <v>52</v>
@@ -3207,7 +3134,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G14" s="2">
         <v>520</v>
@@ -3222,10 +3149,10 @@
         <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2">
         <v>100000</v>
@@ -3234,10 +3161,10 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -3259,28 +3186,28 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
